--- a/Process Workflows/Sales_order_creation/SaleOrder_MasterFile.xlsx
+++ b/Process Workflows/Sales_order_creation/SaleOrder_MasterFile.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admrpad\Desktop\GT Order\GT ORDER UPDATED 5 PROCESS\GT_Order_Process\Process Workflows\Sales_order_creation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admrpad\Desktop\GT Order\GT_Order_11 process_InputTracker\GT_Order_Process\Process Workflows\Sales_order_creation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>Name</t>
   </si>
@@ -174,6 +174,21 @@
   </si>
   <si>
     <t>ZMTOrderType</t>
+  </si>
+  <si>
+    <t>ReasonCode</t>
+  </si>
+  <si>
+    <t>ReasonCodeColumn</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>ReasonCodeFilter</t>
+  </si>
+  <si>
+    <t>TemporarySheetName</t>
   </si>
 </sst>
 </file>
@@ -523,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,6 +781,30 @@
         <v>42</v>
       </c>
     </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
